--- a/data/instat/Combined_Goalies.xlsx
+++ b/data/instat/Combined_Goalies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,107 +451,112 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Time on ice</t>
+          <t>Goals against</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Goals against</t>
+          <t>Shots on goal</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Shots on goal</t>
+          <t>Saves</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Saves</t>
+          <t>Saves, %</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Saves, %</t>
+          <t>Penalty time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Penalty time</t>
+          <t>Penalties drawn</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Penalties drawn</t>
+          <t>Passes</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Passes</t>
+          <t>Accurate passes</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Accurate passes</t>
+          <t>Accurate passes, %</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Accurate passes, %</t>
+          <t>xG conceded</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>xG conceded</t>
+          <t>xG per shot taken</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>xG per shot taken</t>
+          <t>xG per goal conceded</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>xG per goal conceded</t>
+          <t>xG per shot saved</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>xG per shot saved</t>
+          <t>Shootout saves</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Shootout saves</t>
+          <t>Shootouts allowed</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Shootouts allowed</t>
+          <t>Shootouts</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Shootouts</t>
+          <t>Scoring chances - total</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Scoring chances - total</t>
+          <t>Scoring chance saves</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Scoring chance saves</t>
+          <t>Scoring chance saves, %</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Scoring chance saves, %</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Minutes</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Seconds</t>
         </is>
       </c>
     </row>
@@ -567,88 +572,73 @@
       <c r="C2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>51:12</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2.4</v>
       </c>
       <c r="E2" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.009300000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.005500000000000001</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.4</v>
       </c>
-      <c r="F2" t="n">
-        <v>35</v>
-      </c>
-      <c r="G2" t="n">
-        <v>32</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>93%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
       <c r="N2" t="n">
-        <v>2.4</v>
+        <v>0.06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>22</v>
       </c>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>16</v>
+        <v>0.0072</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
           <t>GamesTotal</t>
         </is>
+      </c>
+      <c r="X2" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -663,82 +653,75 @@
       <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>49:08</t>
-        </is>
+      <c r="D3" t="n">
+        <v>3.7</v>
       </c>
       <c r="E3" t="n">
-        <v>3.7</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>31</v>
+        <v>0.0089</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>89%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
           <t>00:17</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>89%</t>
-        </is>
+        <v>0.0089</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.7</v>
       </c>
       <c r="N3" t="n">
-        <v>2.7</v>
+        <v>0.06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06</v>
+        <v>0.85</v>
       </c>
       <c r="P3" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
       <c r="R3" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="S3" t="n">
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
       <c r="T3" t="n">
-        <v>0.43</v>
+        <v>28</v>
       </c>
       <c r="U3" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="V3" t="n">
-        <v>19</v>
+        <v>0.0068</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>68%</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
           <t>GamesTotal</t>
         </is>
+      </c>
+      <c r="X3" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -753,88 +736,73 @@
       <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>49:22</t>
-        </is>
+      <c r="D4" t="n">
+        <v>2.8</v>
       </c>
       <c r="E4" t="n">
-        <v>2.8</v>
+        <v>38</v>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>93%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.009300000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>79%</t>
-        </is>
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.7</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7</v>
+        <v>0.06</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06</v>
+        <v>0.78</v>
       </c>
       <c r="P4" t="n">
-        <v>0.78</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>28</v>
       </c>
       <c r="U4" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="V4" t="n">
-        <v>18</v>
+        <v>0.0063</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>63%</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
           <t>GamesTotal</t>
         </is>
+      </c>
+      <c r="X4" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -849,88 +817,73 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16:44</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2.5</v>
       </c>
       <c r="E5" t="n">
-        <v>2.5</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.008</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+        <v>0.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.79</v>
       </c>
       <c r="N5" t="n">
-        <v>0.79</v>
+        <v>0.05</v>
       </c>
       <c r="O5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.05</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.41</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>5</v>
+        <v>0.0063</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>63%</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
           <t>GamesTotal</t>
         </is>
+      </c>
+      <c r="X5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -945,88 +898,73 @@
       <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>40:25</t>
-        </is>
+      <c r="D6" t="n">
+        <v>1.75</v>
       </c>
       <c r="E6" t="n">
-        <v>1.75</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
+        <v>23</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.009300000000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>16</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0073</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="n">
         <v>25</v>
-      </c>
-      <c r="G6" t="n">
-        <v>23</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>93%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>48%</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>16</v>
-      </c>
-      <c r="V6" t="n">
-        <v>11</v>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>73%</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>EV</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -1041,82 +979,73 @@
       <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>38:08</t>
-        </is>
+      <c r="D7" t="n">
+        <v>2.1</v>
       </c>
       <c r="E7" t="n">
-        <v>2.1</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>91%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.0091</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.7</v>
       </c>
       <c r="N7" t="n">
-        <v>2.7</v>
+        <v>0.06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06</v>
+        <v>0.85</v>
       </c>
       <c r="P7" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
       <c r="R7" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="S7" t="n">
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
       <c r="T7" t="n">
-        <v>0.43</v>
+        <v>19</v>
       </c>
       <c r="U7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>0.0069</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>69%</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
           <t>EV</t>
         </is>
+      </c>
+      <c r="X7" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1131,88 +1060,73 @@
       <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>39:03</t>
-        </is>
+      <c r="D8" t="n">
+        <v>2.3</v>
       </c>
       <c r="E8" t="n">
-        <v>2.3</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.0092</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="L8" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>83%</t>
-        </is>
+        <v>0.0083</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.7</v>
       </c>
       <c r="N8" t="n">
-        <v>2.7</v>
+        <v>0.06</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06</v>
+        <v>0.78</v>
       </c>
       <c r="P8" t="n">
-        <v>0.78</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>23</v>
       </c>
       <c r="U8" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>0.0062</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>62%</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
           <t>EV</t>
         </is>
+      </c>
+      <c r="X8" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1227,88 +1141,73 @@
       <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15:41</t>
-        </is>
+      <c r="D9" t="n">
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>83%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.0083</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
         <v>0.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+        <v>0.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.79</v>
       </c>
       <c r="N9" t="n">
-        <v>0.79</v>
+        <v>0.05</v>
       </c>
       <c r="O9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.05</v>
       </c>
-      <c r="P9" t="n">
-        <v>0.41</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>0.0067</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
           <t>EV</t>
         </is>
+      </c>
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -1323,88 +1222,73 @@
       <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>04:57</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0.13</v>
       </c>
       <c r="E10" t="n">
-        <v>0.13</v>
+        <v>0.88</v>
       </c>
       <c r="F10" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="G10" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>86%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.0086</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.38</v>
       </c>
       <c r="K10" t="n">
         <v>0.38</v>
       </c>
       <c r="L10" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+        <v>0.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.4</v>
       </c>
       <c r="N10" t="n">
-        <v>2.4</v>
+        <v>0.06</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06</v>
+        <v>1.1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.63</v>
       </c>
       <c r="U10" t="n">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5</v>
+        <v>0.008</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>80%</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
           <t>PP</t>
         </is>
+      </c>
+      <c r="X10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1419,82 +1303,73 @@
       <c r="C11" t="n">
         <v>7</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>04:22</t>
-        </is>
+      <c r="D11" t="n">
+        <v>0.14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G11" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>86%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.0086</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+        <v>0.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.7</v>
       </c>
       <c r="N11" t="n">
-        <v>2.7</v>
+        <v>0.06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06</v>
+        <v>0.85</v>
       </c>
       <c r="P11" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
       <c r="R11" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="S11" t="n">
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
       <c r="T11" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="V11" t="n">
-        <v>0.71</v>
+        <v>0.0071</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
           <t>PP</t>
         </is>
+      </c>
+      <c r="X11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -1509,88 +1384,73 @@
       <c r="C12" t="n">
         <v>6</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>05:14</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0.17</v>
       </c>
       <c r="E12" t="n">
-        <v>0.17</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="G12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.0092</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.83</v>
       </c>
       <c r="K12" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="L12" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+        <v>0.008</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.7</v>
       </c>
       <c r="N12" t="n">
-        <v>2.7</v>
+        <v>0.06</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06</v>
+        <v>0.78</v>
       </c>
       <c r="P12" t="n">
-        <v>0.78</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="V12" t="n">
-        <v>1.17</v>
+        <v>0.007800000000000001</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>78%</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
           <t>PP</t>
         </is>
+      </c>
+      <c r="X12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1605,98 +1465,73 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="X13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>PP</t>
-        </is>
+      <c r="Y13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1711,88 +1546,73 @@
       <c r="C14" t="n">
         <v>8</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>05:50</t>
-        </is>
+      <c r="D14" t="n">
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.009399999999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.13</v>
       </c>
       <c r="K14" t="n">
         <v>0.13</v>
       </c>
       <c r="L14" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+        <v>0.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.4</v>
       </c>
       <c r="N14" t="n">
-        <v>2.4</v>
+        <v>0.06</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06</v>
+        <v>1.1</v>
       </c>
       <c r="P14" t="n">
-        <v>1.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.3</v>
       </c>
       <c r="U14" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="V14" t="n">
-        <v>3.6</v>
+        <v>0.0069</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>69%</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
           <t>PK</t>
         </is>
+      </c>
+      <c r="X14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1807,84 +1627,75 @@
       <c r="C15" t="n">
         <v>7</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>06:37</t>
-        </is>
+      <c r="D15" t="n">
+        <v>1.43</v>
       </c>
       <c r="E15" t="n">
-        <v>1.43</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>00:17</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T15" t="n">
         <v>8</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>00:17</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.43</v>
-      </c>
       <c r="U15" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="V15" t="n">
-        <v>4.9</v>
+        <v>0.0064</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>64%</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
           <t>PK</t>
         </is>
+      </c>
+      <c r="X15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="16">
@@ -1899,88 +1710,73 @@
       <c r="C16" t="n">
         <v>6</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>05:05</t>
-        </is>
+      <c r="D16" t="n">
+        <v>0.33</v>
       </c>
       <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.009399999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.33</v>
       </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L16" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>67%</t>
-        </is>
+        <v>0.0067</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.7</v>
       </c>
       <c r="N16" t="n">
-        <v>2.7</v>
+        <v>0.06</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06</v>
+        <v>0.78</v>
       </c>
       <c r="P16" t="n">
-        <v>0.78</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.5</v>
       </c>
       <c r="U16" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="V16" t="n">
-        <v>2.3</v>
+        <v>0.0067</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
           <t>PK</t>
         </is>
+      </c>
+      <c r="X16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1995,96 +1791,73 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>00:03</t>
-        </is>
+      <c r="D17" t="n">
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
         <v>0.5</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>0.5</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="U17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
           <t>PK</t>
         </is>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
